--- a/Planilha_Futebol.xlsx
+++ b/Planilha_Futebol.xlsx
@@ -1,11 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr filterPrivacy="1" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51045AEF-33FC-4D5A-BEEF-731185A09127}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4738309F-105A-4171-85E6-65B09FA839A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="vkWj1svKe9Hb6lVDV6q1QyZZ/B8eaI9SPpV5ZsgXkrbtnvHh8zcZmaRMfgUTH06cqtGjQMZm+CrP9g2eHl2rNw==" workbookSaltValue="dkXUsSN9RNxHh2iRuM02Uw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Banco de dados" sheetId="5" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="Naturalidade">'Banco de dados'!$B$6:$B$32</definedName>
     <definedName name="nome">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +30,8 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -962,6 +965,54 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -988,54 +1039,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3051,34 +3054,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3317,28 +3320,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>8</c:v>
@@ -10069,9 +10072,9 @@
   </sheetPr>
   <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="20" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="D1" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="20" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10330,7 +10333,7 @@
       </c>
       <c r="D6" s="5">
         <f t="shared" ref="D6:D32" ca="1" si="0">DATEDIF(C6,$AE$10,"Y")</f>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>37</v>
@@ -10420,7 +10423,7 @@
       </c>
       <c r="D7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>37</v>
@@ -10510,7 +10513,7 @@
       </c>
       <c r="D8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>37</v>
@@ -10600,7 +10603,7 @@
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>73</v>
@@ -10694,7 +10697,7 @@
       </c>
       <c r="D10" s="5">
         <f ca="1">DATEDIF(C10,$AE$10,"Y")</f>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>37</v>
@@ -10773,7 +10776,7 @@
       </c>
       <c r="AE10" s="89">
         <f ca="1">TODAY()</f>
-        <v>43960</v>
+        <v>45277</v>
       </c>
       <c r="AF10" s="89"/>
     </row>
@@ -10789,7 +10792,7 @@
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>37</v>
@@ -10879,7 +10882,7 @@
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>37</v>
@@ -10969,7 +10972,7 @@
       </c>
       <c r="D13" s="5">
         <f ca="1">DATEDIF(C13,$AE$10,"Y")</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>37</v>
@@ -11059,7 +11062,7 @@
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>37</v>
@@ -11149,7 +11152,7 @@
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>73</v>
@@ -11239,7 +11242,7 @@
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>37</v>
@@ -11329,7 +11332,7 @@
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>73</v>
@@ -11419,7 +11422,7 @@
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>37</v>
@@ -11509,7 +11512,7 @@
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>37</v>
@@ -11599,7 +11602,7 @@
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>37</v>
@@ -11689,7 +11692,7 @@
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>37</v>
@@ -11779,7 +11782,7 @@
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>37</v>
@@ -11869,7 +11872,7 @@
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>37</v>
@@ -11959,7 +11962,7 @@
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>37</v>
@@ -12049,7 +12052,7 @@
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>37</v>
@@ -12139,7 +12142,7 @@
       </c>
       <c r="D26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>37</v>
@@ -12229,7 +12232,7 @@
       </c>
       <c r="D27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>37</v>
@@ -12319,7 +12322,7 @@
       </c>
       <c r="D28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>37</v>
@@ -12409,7 +12412,7 @@
       </c>
       <c r="D29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>73</v>
@@ -12499,7 +12502,7 @@
       </c>
       <c r="D30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>37</v>
@@ -12589,7 +12592,7 @@
       </c>
       <c r="D31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>37</v>
@@ -12679,7 +12682,7 @@
       </c>
       <c r="D32" s="71">
         <f t="shared" ca="1" si="0"/>
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E32" s="69" t="s">
         <v>37</v>
@@ -12801,10 +12804,10 @@
     <tabColor rgb="FFFF0000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR90"/>
+  <dimension ref="A1:AR78"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:K5"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -12824,35 +12827,35 @@
   <sheetData>
     <row r="1" spans="6:44" x14ac:dyDescent="0.25"/>
     <row r="2" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F2" s="104" t="str">
+      <c r="F2" s="90" t="str">
         <f>'Banco de dados'!A2</f>
         <v>Ficha de Avaliação dos Princípios Fundamentais e Operacionais do Jogo</v>
       </c>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-      <c r="Q2" s="104"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
     </row>
     <row r="3" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
     </row>
     <row r="4" spans="6:44" x14ac:dyDescent="0.25">
       <c r="F4" s="9"/>
@@ -12869,50 +12872,50 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="6:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F5" s="95" t="s">
+      <c r="F5" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="94"/>
-      <c r="K5" s="94"/>
-      <c r="L5" s="96">
+      <c r="G5" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="112">
         <f ca="1">VLOOKUP(G5,'Banco de dados'!A6:D32,4,0)</f>
-        <v>29</v>
-      </c>
-      <c r="M5" s="96"/>
+        <v>38</v>
+      </c>
+      <c r="M5" s="112"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="91" t="s">
+      <c r="O5" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="P5" s="92">
+      <c r="P5" s="108">
         <f>AVERAGE(M8,M26)</f>
-        <v>8.4</v>
-      </c>
-      <c r="Q5" s="93"/>
+        <v>7.25</v>
+      </c>
+      <c r="Q5" s="109"/>
     </row>
     <row r="6" spans="6:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F6" s="95"/>
-      <c r="G6" s="94" t="str">
+      <c r="F6" s="111"/>
+      <c r="G6" s="110" t="str">
         <f>VLOOKUP(G5,Tabela1[[Atleta]:[Posição]],7,0)</f>
-        <v>ED</v>
-      </c>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="96" t="str">
+        <v>LD</v>
+      </c>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="110"/>
+      <c r="K6" s="110"/>
+      <c r="L6" s="112" t="str">
         <f>VLOOKUP(G5,'Banco de dados'!A6:D32,2,0)</f>
-        <v>Argélia</v>
-      </c>
-      <c r="M6" s="96"/>
+        <v>Espanha</v>
+      </c>
+      <c r="M6" s="112"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="91"/>
-      <c r="P6" s="93"/>
-      <c r="Q6" s="93"/>
+      <c r="O6" s="107"/>
+      <c r="P6" s="109"/>
+      <c r="Q6" s="109"/>
     </row>
     <row r="7" spans="6:44" x14ac:dyDescent="0.25">
       <c r="F7" s="12"/>
@@ -12930,38 +12933,38 @@
       <c r="AR7" s="10"/>
     </row>
     <row r="8" spans="6:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="100"/>
+      <c r="F8" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="95"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="95"/>
+      <c r="K8" s="96"/>
       <c r="L8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="15">
         <f>AVERAGE(O11,O13,O15,O17,O19,Q19,Q17,Q15,Q13,Q11)</f>
-        <v>8.3000000000000007</v>
+        <v>7.3</v>
       </c>
       <c r="N8" s="13"/>
-      <c r="O8" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="106"/>
-      <c r="Q8" s="107"/>
+      <c r="O8" s="91" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="92"/>
+      <c r="Q8" s="93"/>
       <c r="AR8" s="10"/>
     </row>
     <row r="9" spans="6:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F9" s="98" t="s">
+      <c r="F9" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="95"/>
+      <c r="J9" s="95"/>
+      <c r="K9" s="96"/>
       <c r="L9" s="14" t="s">
         <v>12</v>
       </c>
@@ -12976,14 +12979,14 @@
       <c r="AR9" s="10"/>
     </row>
     <row r="10" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="110"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="99"/>
       <c r="N10" s="13"/>
       <c r="O10" s="19" t="s">
         <v>0</v>
@@ -12994,34 +12997,34 @@
       </c>
     </row>
     <row r="11" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F11" s="111"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="113"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="101"/>
+      <c r="L11" s="101"/>
+      <c r="M11" s="102"/>
       <c r="N11" s="13"/>
       <c r="O11" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:H32,8,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P11" s="20"/>
       <c r="Q11" s="21">
         <f>VLOOKUP(G5,'Banco de dados'!A6:M32,13,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F12" s="111"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="113"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="101"/>
+      <c r="L12" s="101"/>
+      <c r="M12" s="102"/>
       <c r="N12" s="13"/>
       <c r="O12" s="19" t="s">
         <v>1</v>
@@ -13032,18 +13035,18 @@
       </c>
     </row>
     <row r="13" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="113"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="101"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="102"/>
       <c r="N13" s="13"/>
       <c r="O13" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:I32,9,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P13" s="20"/>
       <c r="Q13" s="21">
@@ -13052,14 +13055,14 @@
       </c>
     </row>
     <row r="14" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="113"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="101"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="101"/>
+      <c r="L14" s="101"/>
+      <c r="M14" s="102"/>
       <c r="N14" s="13"/>
       <c r="O14" s="19" t="s">
         <v>2</v>
@@ -13070,34 +13073,34 @@
       </c>
     </row>
     <row r="15" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="113"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
       <c r="N15" s="13"/>
       <c r="O15" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:J32,10,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P15" s="20"/>
       <c r="Q15" s="21">
         <f>VLOOKUP(G5,'Banco de dados'!A6:O32,15,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="6:44" x14ac:dyDescent="0.25">
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="113"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="101"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="102"/>
       <c r="N16" s="13"/>
       <c r="O16" s="19" t="s">
         <v>3</v>
@@ -13108,34 +13111,34 @@
       </c>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F17" s="111"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="113"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="102"/>
       <c r="N17" s="13"/>
       <c r="O17" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:K32,11,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P17" s="20"/>
       <c r="Q17" s="21">
         <f>VLOOKUP(G5,'Banco de dados'!A6:P32,16,FALSE)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F18" s="111"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="113"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="101"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="102"/>
       <c r="N18" s="13"/>
       <c r="O18" s="19" t="s">
         <v>4</v>
@@ -13146,100 +13149,100 @@
       </c>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F19" s="111"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="113"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="101"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="102"/>
       <c r="N19" s="13"/>
       <c r="O19" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:L32,12,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P19" s="20"/>
       <c r="Q19" s="21">
         <f>VLOOKUP(G5,'Banco de dados'!A6:Q32,17,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F20" s="111"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="113"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="101"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="101"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
       <c r="N20" s="13"/>
       <c r="O20" s="22"/>
       <c r="P20" s="23"/>
       <c r="Q20" s="24"/>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F21" s="111"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="113"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F22" s="111"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="113"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="101"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="102"/>
       <c r="N22" s="13"/>
-      <c r="O22" s="98" t="s">
+      <c r="O22" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="100"/>
+      <c r="P22" s="95"/>
+      <c r="Q22" s="96"/>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F23" s="111"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="112"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="112"/>
-      <c r="M23" s="113"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="101"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="101"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
       <c r="N23" s="13"/>
-      <c r="O23" s="108" t="s">
+      <c r="O23" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="P23" s="109"/>
-      <c r="Q23" s="110"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="99"/>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F24" s="101"/>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="103"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="104"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="104"/>
+      <c r="M24" s="105"/>
       <c r="N24" s="13"/>
-      <c r="O24" s="101" t="s">
+      <c r="O24" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="P24" s="102"/>
-      <c r="Q24" s="103"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="105"/>
     </row>
     <row r="25" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F25" s="25"/>
@@ -13256,37 +13259,37 @@
       <c r="Q25" s="25"/>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F26" s="98" t="s">
+      <c r="F26" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="100"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="96"/>
       <c r="L26" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M26" s="15">
         <f>AVERAGE(O29,O31,O33,O35,O37,Q29,Q31,Q33,Q35,Q37)</f>
-        <v>8.5</v>
+        <v>7.2</v>
       </c>
       <c r="N26" s="13"/>
-      <c r="O26" s="105" t="s">
+      <c r="O26" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="107"/>
+      <c r="P26" s="92"/>
+      <c r="Q26" s="93"/>
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F27" s="98" t="s">
+      <c r="F27" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="100"/>
+      <c r="G27" s="95"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="96"/>
       <c r="L27" s="14" t="s">
         <v>12</v>
       </c>
@@ -13300,14 +13303,14 @@
       <c r="Q27" s="18"/>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F28" s="108"/>
-      <c r="G28" s="109"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
-      <c r="L28" s="109"/>
-      <c r="M28" s="110"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="98"/>
+      <c r="I28" s="98"/>
+      <c r="J28" s="98"/>
+      <c r="K28" s="98"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
       <c r="N28" s="13"/>
       <c r="O28" s="19" t="s">
         <v>24</v>
@@ -13318,34 +13321,34 @@
       </c>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F29" s="111"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="112"/>
-      <c r="I29" s="112"/>
-      <c r="J29" s="112"/>
-      <c r="K29" s="112"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="113"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="101"/>
+      <c r="H29" s="101"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
       <c r="N29" s="13"/>
       <c r="O29" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:R32,18,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P29" s="20"/>
       <c r="Q29" s="21">
         <f>VLOOKUP(G5,'Banco de dados'!A6:W32,21,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="111"/>
-      <c r="G30" s="112"/>
-      <c r="H30" s="112"/>
-      <c r="I30" s="112"/>
-      <c r="J30" s="112"/>
-      <c r="K30" s="112"/>
-      <c r="L30" s="112"/>
-      <c r="M30" s="113"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="102"/>
       <c r="N30" s="13"/>
       <c r="O30" s="19" t="s">
         <v>25</v>
@@ -13356,34 +13359,34 @@
       </c>
     </row>
     <row r="31" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="111"/>
-      <c r="G31" s="112"/>
-      <c r="H31" s="112"/>
-      <c r="I31" s="112"/>
-      <c r="J31" s="112"/>
-      <c r="K31" s="112"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="113"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="102"/>
       <c r="N31" s="13"/>
       <c r="O31" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:S32,18,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P31" s="20"/>
       <c r="Q31" s="21">
         <f>VLOOKUP(G5,'Banco de dados'!A6:X32,22,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="111"/>
-      <c r="G32" s="112"/>
-      <c r="H32" s="112"/>
-      <c r="I32" s="112"/>
-      <c r="J32" s="112"/>
-      <c r="K32" s="112"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="113"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="102"/>
       <c r="N32" s="13"/>
       <c r="O32" s="19" t="s">
         <v>30</v>
@@ -13394,34 +13397,34 @@
       </c>
     </row>
     <row r="33" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F33" s="111"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
-      <c r="L33" s="112"/>
-      <c r="M33" s="113"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="102"/>
       <c r="N33" s="13"/>
       <c r="O33" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:T32,18,FALSE)</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P33" s="20"/>
       <c r="Q33" s="21">
         <f>VLOOKUP(G5,'Banco de dados'!A6:Y32,23,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F34" s="111"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-      <c r="K34" s="112"/>
-      <c r="L34" s="112"/>
-      <c r="M34" s="113"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="102"/>
       <c r="N34" s="13"/>
       <c r="O34" s="19" t="s">
         <v>26</v>
@@ -13432,18 +13435,18 @@
       </c>
     </row>
     <row r="35" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F35" s="111"/>
-      <c r="G35" s="112"/>
-      <c r="H35" s="112"/>
-      <c r="I35" s="112"/>
-      <c r="J35" s="112"/>
-      <c r="K35" s="112"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="113"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="102"/>
       <c r="N35" s="13"/>
       <c r="O35" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:U32,19,FALSE)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P35" s="20"/>
       <c r="Q35" s="21">
@@ -13452,14 +13455,14 @@
       </c>
     </row>
     <row r="36" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F36" s="111"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="112"/>
-      <c r="I36" s="112"/>
-      <c r="J36" s="112"/>
-      <c r="K36" s="112"/>
-      <c r="L36" s="112"/>
-      <c r="M36" s="113"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
       <c r="N36" s="13"/>
       <c r="O36" s="19" t="s">
         <v>27</v>
@@ -13470,18 +13473,18 @@
       </c>
     </row>
     <row r="37" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F37" s="111"/>
-      <c r="G37" s="112"/>
-      <c r="H37" s="112"/>
-      <c r="I37" s="112"/>
-      <c r="J37" s="112"/>
-      <c r="K37" s="112"/>
-      <c r="L37" s="112"/>
-      <c r="M37" s="113"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="102"/>
       <c r="N37" s="13"/>
       <c r="O37" s="19">
         <f>VLOOKUP(G5,'Banco de dados'!A6:V32,20,FALSE)</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P37" s="20"/>
       <c r="Q37" s="21">
@@ -13490,80 +13493,80 @@
       </c>
     </row>
     <row r="38" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="111"/>
-      <c r="G38" s="112"/>
-      <c r="H38" s="112"/>
-      <c r="I38" s="112"/>
-      <c r="J38" s="112"/>
-      <c r="K38" s="112"/>
-      <c r="L38" s="112"/>
-      <c r="M38" s="113"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="102"/>
       <c r="N38" s="13"/>
       <c r="O38" s="22"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="24"/>
     </row>
     <row r="39" spans="6:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="111"/>
-      <c r="G39" s="112"/>
-      <c r="H39" s="112"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
-      <c r="K39" s="112"/>
-      <c r="L39" s="112"/>
-      <c r="M39" s="113"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="102"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
     </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F40" s="111"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
-      <c r="K40" s="112"/>
-      <c r="L40" s="112"/>
-      <c r="M40" s="113"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="102"/>
       <c r="N40" s="13"/>
-      <c r="O40" s="98" t="s">
+      <c r="O40" s="94" t="s">
         <v>14</v>
       </c>
-      <c r="P40" s="99"/>
-      <c r="Q40" s="100"/>
+      <c r="P40" s="95"/>
+      <c r="Q40" s="96"/>
     </row>
     <row r="41" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F41" s="111"/>
-      <c r="G41" s="112"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
-      <c r="K41" s="112"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="113"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="102"/>
       <c r="N41" s="13"/>
-      <c r="O41" s="108" t="s">
+      <c r="O41" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="P41" s="109"/>
-      <c r="Q41" s="110"/>
+      <c r="P41" s="98"/>
+      <c r="Q41" s="99"/>
     </row>
     <row r="42" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F42" s="101"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="102"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="102"/>
-      <c r="K42" s="102"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="103"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="104"/>
+      <c r="I42" s="104"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="105"/>
       <c r="N42" s="13"/>
-      <c r="O42" s="101" t="s">
+      <c r="O42" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="103"/>
+      <c r="P42" s="104"/>
+      <c r="Q42" s="105"/>
     </row>
     <row r="43" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F43" s="25"/>
@@ -13580,22 +13583,22 @@
       <c r="Q43" s="25"/>
     </row>
     <row r="44" spans="6:17" x14ac:dyDescent="0.25">
-      <c r="F44" s="98" t="s">
+      <c r="F44" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="G44" s="99"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="99"/>
-      <c r="J44" s="99"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="99"/>
-      <c r="M44" s="100"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="96"/>
       <c r="N44" s="20"/>
-      <c r="O44" s="98" t="s">
+      <c r="O44" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="P44" s="99"/>
-      <c r="Q44" s="100"/>
+      <c r="P44" s="95"/>
+      <c r="Q44" s="96"/>
     </row>
     <row r="45" spans="6:17" x14ac:dyDescent="0.25">
       <c r="F45" s="26"/>
@@ -13780,34 +13783,34 @@
       <c r="Q57" s="13"/>
     </row>
     <row r="58" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="F58" s="97" t="s">
+      <c r="F58" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
-      <c r="M58" s="97"/>
-      <c r="N58" s="97"/>
-      <c r="O58" s="97"/>
-      <c r="P58" s="97"/>
-      <c r="Q58" s="97"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
+      <c r="K58" s="113"/>
+      <c r="L58" s="113"/>
+      <c r="M58" s="113"/>
+      <c r="N58" s="113"/>
+      <c r="O58" s="113"/>
+      <c r="P58" s="113"/>
+      <c r="Q58" s="113"/>
     </row>
     <row r="59" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="97"/>
-      <c r="M59" s="97"/>
-      <c r="N59" s="97"/>
-      <c r="O59" s="97"/>
-      <c r="P59" s="97"/>
-      <c r="Q59" s="97"/>
+      <c r="F59" s="113"/>
+      <c r="G59" s="113"/>
+      <c r="H59" s="113"/>
+      <c r="I59" s="113"/>
+      <c r="J59" s="113"/>
+      <c r="K59" s="113"/>
+      <c r="L59" s="113"/>
+      <c r="M59" s="113"/>
+      <c r="N59" s="113"/>
+      <c r="O59" s="113"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="113"/>
     </row>
     <row r="60" spans="1:42" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55" t="s">
@@ -13880,27 +13883,27 @@
     <row r="61" spans="1:42" s="56" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55">
         <f>O11</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" s="55">
         <f>O13</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C61" s="55">
         <f>O15</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" s="55">
         <f>O17</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E61" s="55">
         <f>O19</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F61" s="55">
         <f>Q11</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G61" s="55">
         <f>Q13</f>
@@ -13908,47 +13911,47 @@
       </c>
       <c r="H61" s="55">
         <f>Q15</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I61" s="55">
         <f>Q17</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J61" s="55">
         <f>Q19</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K61" s="55">
         <f>O29</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L61" s="55">
         <f>O31</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M61" s="55">
         <f>O33</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N61" s="55">
         <f>O35</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O61" s="55">
         <f>O37</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P61" s="55">
         <f>Q29</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q61" s="55">
         <f>Q31</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R61" s="55">
         <f>Q33</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S61" s="55">
         <f>Q35</f>
@@ -13975,20 +13978,20 @@
       <c r="C62" s="58"/>
       <c r="D62" s="57"/>
       <c r="E62" s="57"/>
-      <c r="F62" s="90" t="s">
+      <c r="F62" s="106" t="s">
         <v>36</v>
       </c>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="90"/>
-      <c r="L62" s="90"/>
-      <c r="M62" s="90"/>
-      <c r="N62" s="90"/>
-      <c r="O62" s="90"/>
-      <c r="P62" s="90"/>
-      <c r="Q62" s="90"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
+      <c r="J62" s="106"/>
+      <c r="K62" s="106"/>
+      <c r="L62" s="106"/>
+      <c r="M62" s="106"/>
+      <c r="N62" s="106"/>
+      <c r="O62" s="106"/>
+      <c r="P62" s="106"/>
+      <c r="Q62" s="106"/>
       <c r="R62" s="57"/>
       <c r="S62" s="57"/>
       <c r="T62" s="58"/>
@@ -14020,7 +14023,7 @@
     <row r="63" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="60">
         <f>MATCH(G5,Lista,0)</f>
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B63" s="60"/>
       <c r="C63" s="20"/>
@@ -14217,9 +14220,6 @@
     <row r="70" spans="17:42" hidden="1" x14ac:dyDescent="0.25">
       <c r="Q70" s="64"/>
     </row>
-    <row r="71" spans="17:42" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="17:42" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="17:42" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="74" spans="17:42" ht="21" hidden="1" x14ac:dyDescent="0.35">
       <c r="U74" s="62"/>
       <c r="V74" s="62"/>
@@ -14340,33 +14340,9 @@
       <c r="AO78" s="61"/>
       <c r="AP78" s="61"/>
     </row>
-    <row r="79" spans="17:42" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="17:42" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ZmAyKf86NnlhfX+dH0jBF9AYB3W53qn+TeaPNBrEXwiGvmKgwU6N21ObFMYSzblQyIjoc/ippEGVFsvJiZMXTg==" saltValue="CLDLNzpm6lVSRYDYZ8FDPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="26">
-    <mergeCell ref="F2:Q3"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F28:M42"/>
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="O41:Q41"/>
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="F10:M24"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O22:Q22"/>
-    <mergeCell ref="O23:Q23"/>
-    <mergeCell ref="O24:Q24"/>
     <mergeCell ref="F62:Q62"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:Q6"/>
@@ -14381,6 +14357,18 @@
     <mergeCell ref="O44:Q44"/>
     <mergeCell ref="O42:Q42"/>
     <mergeCell ref="F26:K26"/>
+    <mergeCell ref="F2:Q3"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F28:M42"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="O41:Q41"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="F10:M24"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O22:Q22"/>
+    <mergeCell ref="O23:Q23"/>
+    <mergeCell ref="O24:Q24"/>
   </mergeCells>
   <conditionalFormatting sqref="O10:Q19">
     <cfRule type="dataBar" priority="6">
@@ -14950,121 +14938,29 @@
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-    </row>
-    <row r="28" spans="1:3" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-    </row>
+    <row r="17" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cMb1xYzUYzfvR2zlDvFFtgNHJ3GHf+nMea4aqlgetaWESP9H2P7qvHzoph/Q6ZOr6tz1+Nw6UF5eT+xJ4LuIHQ==" saltValue="yi9fu4sxKO1GxxvTxaNITw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
@@ -15096,12 +14992,12 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y41"/>
+  <dimension ref="A1:Y30"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="S33" sqref="S33"/>
-      <selection pane="bottomLeft" sqref="A1:A2"/>
+      <selection pane="bottomLeft" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -17822,17 +17718,6 @@
       </c>
       <c r="X30" s="66"/>
     </row>
-    <row r="31" spans="1:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="39" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="40" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="41" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="e5JqFlBU3oIIwsp1XkEN/niVZr0EK7f1MeZJin87jWg0dJ98h84ZTmcbCzWLx+Su73YxCKKCfMBFXjX9wga1ew==" saltValue="Bet4wq5u30lYdiyMyaZpEA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
